--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$229</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1310,10 +1307,10 @@
     <t>CoverageEligibilityResponse.insurance.item.name</t>
   </si>
   <si>
-    <t>Product/Item/Service code</t>
-  </si>
-  <si>
-    <t>Product/Item/Service code.</t>
+    <t>Short name for the benefit</t>
+  </si>
+  <si>
+    <t>A short name or tag for the benefit.</t>
   </si>
   <si>
     <t>For example: MED01, or DENT2.</t>
@@ -1325,10 +1322,10 @@
     <t>CoverageEligibilityResponse.insurance.item.description</t>
   </si>
   <si>
-    <t>Product/Item/Service name</t>
-  </si>
-  <si>
-    <t>Product/Item/Service name.</t>
+    <t>Description of the benefit or services covered</t>
+  </si>
+  <si>
+    <t>A richer description of the benefit or services covered.</t>
   </si>
   <si>
     <t>For example 'DENT2 covers 100% of basic, 50% of major but excludes Ortho, Implants and Cosmetic services'.</t>
@@ -1524,16 +1521,16 @@
     <t>http://hl7.org/fhir/ValueSet/ex-benefitcategory</t>
   </si>
   <si>
-    <t>Short name for the benefit</t>
-  </si>
-  <si>
-    <t>A short name or tag for the benefit.</t>
-  </si>
-  <si>
-    <t>Description of the benefit or services covered</t>
-  </si>
-  <si>
-    <t>A richer description of the benefit or services covered.</t>
+    <t>Product/Item/Service code</t>
+  </si>
+  <si>
+    <t>Product/Item/Service code.</t>
+  </si>
+  <si>
+    <t>Product/Item/Service name</t>
+  </si>
+  <si>
+    <t>Product/Item/Service name.</t>
   </si>
   <si>
     <t>11</t>
@@ -1937,21 +1934,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2297,7 +2279,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -2406,7 +2388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>82</v>
       </c>
@@ -2517,7 +2499,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>90</v>
       </c>
@@ -2626,7 +2608,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>96</v>
       </c>
@@ -2737,7 +2719,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>102</v>
       </c>
@@ -2848,7 +2830,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>111</v>
       </c>
@@ -2959,7 +2941,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>119</v>
       </c>
@@ -3070,7 +3052,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>127</v>
       </c>
@@ -3181,7 +3163,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>135</v>
       </c>
@@ -3294,7 +3276,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>140</v>
       </c>
@@ -3310,7 +3292,7 @@
         <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -3403,7 +3385,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>149</v>
       </c>
@@ -3512,7 +3494,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>154</v>
       </c>
@@ -3623,7 +3605,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>160</v>
       </c>
@@ -3736,7 +3718,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>170</v>
       </c>
@@ -3849,7 +3831,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>180</v>
       </c>
@@ -3958,7 +3940,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>181</v>
       </c>
@@ -4069,7 +4051,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>182</v>
       </c>
@@ -4182,7 +4164,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>190</v>
       </c>
@@ -4291,7 +4273,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>191</v>
       </c>
@@ -4402,7 +4384,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>192</v>
       </c>
@@ -4515,7 +4497,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>199</v>
       </c>
@@ -4626,7 +4608,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>205</v>
       </c>
@@ -4735,7 +4717,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>212</v>
       </c>
@@ -4846,7 +4828,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>218</v>
       </c>
@@ -4959,7 +4941,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>226</v>
       </c>
@@ -5072,7 +5054,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>233</v>
       </c>
@@ -5185,7 +5167,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>241</v>
       </c>
@@ -5296,7 +5278,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>248</v>
       </c>
@@ -5405,7 +5387,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>254</v>
       </c>
@@ -5516,7 +5498,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>140</v>
       </c>
@@ -5629,7 +5611,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>149</v>
       </c>
@@ -5738,7 +5720,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>154</v>
       </c>
@@ -5849,7 +5831,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>160</v>
       </c>
@@ -5962,7 +5944,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>170</v>
       </c>
@@ -6075,7 +6057,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>180</v>
       </c>
@@ -6184,7 +6166,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>181</v>
       </c>
@@ -6295,7 +6277,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>182</v>
       </c>
@@ -6408,7 +6390,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>190</v>
       </c>
@@ -6517,7 +6499,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>191</v>
       </c>
@@ -6628,7 +6610,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>192</v>
       </c>
@@ -6741,7 +6723,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>199</v>
       </c>
@@ -6852,7 +6834,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>205</v>
       </c>
@@ -6963,7 +6945,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>212</v>
       </c>
@@ -7074,7 +7056,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>218</v>
       </c>
@@ -7187,7 +7169,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>226</v>
       </c>
@@ -7300,7 +7282,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>233</v>
       </c>
@@ -7413,7 +7395,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>241</v>
       </c>
@@ -7524,7 +7506,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>248</v>
       </c>
@@ -7633,7 +7615,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>254</v>
       </c>
@@ -7744,7 +7726,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>264</v>
       </c>
@@ -7857,7 +7839,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>273</v>
       </c>
@@ -7968,7 +7950,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>281</v>
       </c>
@@ -8079,7 +8061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>289</v>
       </c>
@@ -8190,7 +8172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>296</v>
       </c>
@@ -8301,7 +8283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>302</v>
       </c>
@@ -8412,7 +8394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>309</v>
       </c>
@@ -8523,7 +8505,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>317</v>
       </c>
@@ -8636,7 +8618,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>325</v>
       </c>
@@ -8747,7 +8729,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>330</v>
       </c>
@@ -8858,7 +8840,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>335</v>
       </c>
@@ -8971,7 +8953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>341</v>
       </c>
@@ -9080,7 +9062,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>342</v>
       </c>
@@ -9191,7 +9173,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>343</v>
       </c>
@@ -9304,7 +9286,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>348</v>
       </c>
@@ -9415,7 +9397,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>353</v>
       </c>
@@ -9526,7 +9508,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>357</v>
       </c>
@@ -9637,7 +9619,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>361</v>
       </c>
@@ -9746,7 +9728,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>362</v>
       </c>
@@ -9857,7 +9839,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>363</v>
       </c>
@@ -9968,7 +9950,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>370</v>
       </c>
@@ -10081,7 +10063,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>377</v>
       </c>
@@ -10188,7 +10170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>383</v>
       </c>
@@ -10297,7 +10279,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>384</v>
       </c>
@@ -10408,7 +10390,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>385</v>
       </c>
@@ -10521,7 +10503,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>386</v>
       </c>
@@ -10632,7 +10614,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>392</v>
       </c>
@@ -10745,7 +10727,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>401</v>
       </c>
@@ -10858,7 +10840,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>408</v>
       </c>
@@ -10969,7 +10951,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>413</v>
       </c>
@@ -11080,7 +11062,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>417</v>
       </c>
@@ -11090,7 +11072,7 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>83</v>
@@ -11193,7 +11175,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>422</v>
       </c>
@@ -11203,7 +11185,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>83</v>
@@ -11306,7 +11288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>427</v>
       </c>
@@ -11417,7 +11399,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>433</v>
       </c>
@@ -11528,7 +11510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>439</v>
       </c>
@@ -11639,7 +11621,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>444</v>
       </c>
@@ -11748,7 +11730,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>447</v>
       </c>
@@ -11857,7 +11839,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>448</v>
       </c>
@@ -11968,7 +11950,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>449</v>
       </c>
@@ -12081,7 +12063,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>450</v>
       </c>
@@ -12194,7 +12176,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>457</v>
       </c>
@@ -12305,7 +12287,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>462</v>
       </c>
@@ -12416,7 +12398,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>466</v>
       </c>
@@ -12527,7 +12509,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>470</v>
       </c>
@@ -12638,7 +12620,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>476</v>
       </c>
@@ -12749,7 +12731,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>377</v>
       </c>
@@ -12860,7 +12842,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>383</v>
       </c>
@@ -12969,7 +12951,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
         <v>384</v>
       </c>
@@ -13080,7 +13062,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>385</v>
       </c>
@@ -13193,7 +13175,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>386</v>
       </c>
@@ -13306,7 +13288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>392</v>
       </c>
@@ -13419,7 +13401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>401</v>
       </c>
@@ -13532,7 +13514,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>408</v>
       </c>
@@ -13643,7 +13625,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>413</v>
       </c>
@@ -13754,7 +13736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>417</v>
       </c>
@@ -13764,7 +13746,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>83</v>
@@ -13867,7 +13849,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
         <v>422</v>
       </c>
@@ -13877,7 +13859,7 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>83</v>
@@ -13980,7 +13962,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>427</v>
       </c>
@@ -14091,7 +14073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>433</v>
       </c>
@@ -14202,7 +14184,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>439</v>
       </c>
@@ -14313,7 +14295,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
         <v>444</v>
       </c>
@@ -14420,7 +14402,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>447</v>
       </c>
@@ -14529,7 +14511,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>448</v>
       </c>
@@ -14640,7 +14622,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>449</v>
       </c>
@@ -14753,7 +14735,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>450</v>
       </c>
@@ -14866,7 +14848,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>457</v>
       </c>
@@ -14977,7 +14959,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
         <v>462</v>
       </c>
@@ -15088,7 +15070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>444</v>
       </c>
@@ -15199,7 +15181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>447</v>
       </c>
@@ -15308,7 +15290,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>448</v>
       </c>
@@ -15419,7 +15401,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
         <v>449</v>
       </c>
@@ -15532,7 +15514,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>450</v>
       </c>
@@ -15643,7 +15625,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>457</v>
       </c>
@@ -15754,7 +15736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>462</v>
       </c>
@@ -15865,7 +15847,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
         <v>444</v>
       </c>
@@ -15976,7 +15958,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>447</v>
       </c>
@@ -16085,7 +16067,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
         <v>448</v>
       </c>
@@ -16196,7 +16178,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
         <v>449</v>
       </c>
@@ -16309,7 +16291,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
         <v>450</v>
       </c>
@@ -16420,7 +16402,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
         <v>457</v>
       </c>
@@ -16529,7 +16511,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
         <v>457</v>
       </c>
@@ -16642,7 +16624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
         <v>503</v>
       </c>
@@ -16751,7 +16733,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>504</v>
       </c>
@@ -16862,7 +16844,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>505</v>
       </c>
@@ -16975,7 +16957,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>512</v>
       </c>
@@ -17086,7 +17068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>462</v>
       </c>
@@ -17197,7 +17179,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" hidden="true">
+    <row r="136">
       <c r="A136" t="s" s="2">
         <v>466</v>
       </c>
@@ -17308,7 +17290,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" hidden="true">
+    <row r="137">
       <c r="A137" t="s" s="2">
         <v>470</v>
       </c>
@@ -17419,7 +17401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" hidden="true">
+    <row r="138">
       <c r="A138" t="s" s="2">
         <v>476</v>
       </c>
@@ -17530,7 +17512,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>377</v>
       </c>
@@ -17641,7 +17623,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>383</v>
       </c>
@@ -17750,7 +17732,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>384</v>
       </c>
@@ -17861,7 +17843,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
         <v>385</v>
       </c>
@@ -17974,7 +17956,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>386</v>
       </c>
@@ -18087,7 +18069,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144" hidden="true">
+    <row r="144">
       <c r="A144" t="s" s="2">
         <v>392</v>
       </c>
@@ -18200,7 +18182,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
         <v>524</v>
       </c>
@@ -18309,7 +18291,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" hidden="true">
+    <row r="146">
       <c r="A146" t="s" s="2">
         <v>525</v>
       </c>
@@ -18420,7 +18402,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="147" hidden="true">
+    <row r="147">
       <c r="A147" t="s" s="2">
         <v>526</v>
       </c>
@@ -18533,7 +18515,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
         <v>527</v>
       </c>
@@ -18646,7 +18628,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="149" hidden="true">
+    <row r="149">
       <c r="A149" t="s" s="2">
         <v>401</v>
       </c>
@@ -18759,7 +18741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" hidden="true">
+    <row r="150">
       <c r="A150" t="s" s="2">
         <v>408</v>
       </c>
@@ -18870,7 +18852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="151" hidden="true">
+    <row r="151">
       <c r="A151" t="s" s="2">
         <v>413</v>
       </c>
@@ -18981,7 +18963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="152" hidden="true">
+    <row r="152">
       <c r="A152" t="s" s="2">
         <v>417</v>
       </c>
@@ -19009,10 +18991,10 @@
         <v>85</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>487</v>
+        <v>418</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>420</v>
@@ -19094,7 +19076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="153" hidden="true">
+    <row r="153">
       <c r="A153" t="s" s="2">
         <v>422</v>
       </c>
@@ -19122,10 +19104,10 @@
         <v>85</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>489</v>
+        <v>423</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>490</v>
+        <v>424</v>
       </c>
       <c r="M153" t="s" s="2">
         <v>425</v>
@@ -19207,7 +19189,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="154" hidden="true">
+    <row r="154">
       <c r="A154" t="s" s="2">
         <v>427</v>
       </c>
@@ -19318,7 +19300,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155" hidden="true">
+    <row r="155">
       <c r="A155" t="s" s="2">
         <v>433</v>
       </c>
@@ -19429,7 +19411,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="156" hidden="true">
+    <row r="156">
       <c r="A156" t="s" s="2">
         <v>439</v>
       </c>
@@ -19540,7 +19522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
         <v>444</v>
       </c>
@@ -19647,7 +19629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158" hidden="true">
+    <row r="158">
       <c r="A158" t="s" s="2">
         <v>447</v>
       </c>
@@ -19756,7 +19738,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="159" hidden="true">
+    <row r="159">
       <c r="A159" t="s" s="2">
         <v>448</v>
       </c>
@@ -19867,7 +19849,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="160" hidden="true">
+    <row r="160">
       <c r="A160" t="s" s="2">
         <v>449</v>
       </c>
@@ -19980,7 +19962,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" hidden="true">
+    <row r="161">
       <c r="A161" t="s" s="2">
         <v>450</v>
       </c>
@@ -20093,7 +20075,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="162" hidden="true">
+    <row r="162">
       <c r="A162" t="s" s="2">
         <v>457</v>
       </c>
@@ -20204,7 +20186,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>462</v>
       </c>
@@ -20315,7 +20297,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" hidden="true">
+    <row r="164">
       <c r="A164" t="s" s="2">
         <v>444</v>
       </c>
@@ -20426,7 +20408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
         <v>447</v>
       </c>
@@ -20535,7 +20517,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="166" hidden="true">
+    <row r="166">
       <c r="A166" t="s" s="2">
         <v>448</v>
       </c>
@@ -20646,7 +20628,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>449</v>
       </c>
@@ -20759,7 +20741,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="168" hidden="true">
+    <row r="168">
       <c r="A168" t="s" s="2">
         <v>450</v>
       </c>
@@ -20872,7 +20854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" hidden="true">
+    <row r="169">
       <c r="A169" t="s" s="2">
         <v>457</v>
       </c>
@@ -20983,7 +20965,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="170" hidden="true">
+    <row r="170">
       <c r="A170" t="s" s="2">
         <v>462</v>
       </c>
@@ -21094,7 +21076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
         <v>444</v>
       </c>
@@ -21205,7 +21187,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" hidden="true">
+    <row r="172">
       <c r="A172" t="s" s="2">
         <v>447</v>
       </c>
@@ -21314,7 +21296,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
         <v>448</v>
       </c>
@@ -21425,7 +21407,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>449</v>
       </c>
@@ -21538,7 +21520,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
         <v>450</v>
       </c>
@@ -21651,7 +21633,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="176" hidden="true">
+    <row r="176">
       <c r="A176" t="s" s="2">
         <v>457</v>
       </c>
@@ -21762,7 +21744,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="177" hidden="true">
+    <row r="177">
       <c r="A177" t="s" s="2">
         <v>462</v>
       </c>
@@ -21873,7 +21855,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="178" hidden="true">
+    <row r="178">
       <c r="A178" t="s" s="2">
         <v>466</v>
       </c>
@@ -21984,7 +21966,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="179" hidden="true">
+    <row r="179">
       <c r="A179" t="s" s="2">
         <v>470</v>
       </c>
@@ -22095,7 +22077,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="180" hidden="true">
+    <row r="180">
       <c r="A180" t="s" s="2">
         <v>476</v>
       </c>
@@ -22206,7 +22188,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181" hidden="true">
+    <row r="181">
       <c r="A181" t="s" s="2">
         <v>377</v>
       </c>
@@ -22317,7 +22299,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="182" hidden="true">
+    <row r="182">
       <c r="A182" t="s" s="2">
         <v>383</v>
       </c>
@@ -22426,7 +22408,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="183" hidden="true">
+    <row r="183">
       <c r="A183" t="s" s="2">
         <v>384</v>
       </c>
@@ -22537,7 +22519,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="184" hidden="true">
+    <row r="184">
       <c r="A184" t="s" s="2">
         <v>385</v>
       </c>
@@ -22650,7 +22632,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="185" hidden="true">
+    <row r="185">
       <c r="A185" t="s" s="2">
         <v>386</v>
       </c>
@@ -22763,7 +22745,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="186" hidden="true">
+    <row r="186">
       <c r="A186" t="s" s="2">
         <v>392</v>
       </c>
@@ -22876,7 +22858,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="187" hidden="true">
+    <row r="187">
       <c r="A187" t="s" s="2">
         <v>524</v>
       </c>
@@ -22985,7 +22967,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="188" hidden="true">
+    <row r="188">
       <c r="A188" t="s" s="2">
         <v>525</v>
       </c>
@@ -23096,7 +23078,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="189" hidden="true">
+    <row r="189">
       <c r="A189" t="s" s="2">
         <v>526</v>
       </c>
@@ -23209,7 +23191,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="190" hidden="true">
+    <row r="190">
       <c r="A190" t="s" s="2">
         <v>527</v>
       </c>
@@ -23322,7 +23304,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="191" hidden="true">
+    <row r="191">
       <c r="A191" t="s" s="2">
         <v>401</v>
       </c>
@@ -23435,7 +23417,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="192" hidden="true">
+    <row r="192">
       <c r="A192" t="s" s="2">
         <v>408</v>
       </c>
@@ -23546,7 +23528,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="193" hidden="true">
+    <row r="193">
       <c r="A193" t="s" s="2">
         <v>413</v>
       </c>
@@ -23657,7 +23639,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194" hidden="true">
+    <row r="194">
       <c r="A194" t="s" s="2">
         <v>417</v>
       </c>
@@ -23685,10 +23667,10 @@
         <v>85</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>487</v>
+        <v>418</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="M194" t="s" s="2">
         <v>420</v>
@@ -23770,7 +23752,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="195" hidden="true">
+    <row r="195">
       <c r="A195" t="s" s="2">
         <v>422</v>
       </c>
@@ -23798,10 +23780,10 @@
         <v>85</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>489</v>
+        <v>423</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>490</v>
+        <v>424</v>
       </c>
       <c r="M195" t="s" s="2">
         <v>425</v>
@@ -23883,7 +23865,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="196" hidden="true">
+    <row r="196">
       <c r="A196" t="s" s="2">
         <v>427</v>
       </c>
@@ -23994,7 +23976,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="197" hidden="true">
+    <row r="197">
       <c r="A197" t="s" s="2">
         <v>433</v>
       </c>
@@ -24105,7 +24087,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="198" hidden="true">
+    <row r="198">
       <c r="A198" t="s" s="2">
         <v>439</v>
       </c>
@@ -24216,7 +24198,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="199" hidden="true">
+    <row r="199">
       <c r="A199" t="s" s="2">
         <v>444</v>
       </c>
@@ -24323,7 +24305,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="200" hidden="true">
+    <row r="200">
       <c r="A200" t="s" s="2">
         <v>447</v>
       </c>
@@ -24432,7 +24414,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="201" hidden="true">
+    <row r="201">
       <c r="A201" t="s" s="2">
         <v>448</v>
       </c>
@@ -24543,7 +24525,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="202" hidden="true">
+    <row r="202">
       <c r="A202" t="s" s="2">
         <v>449</v>
       </c>
@@ -24656,7 +24638,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="203" hidden="true">
+    <row r="203">
       <c r="A203" t="s" s="2">
         <v>450</v>
       </c>
@@ -24769,7 +24751,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" hidden="true">
+    <row r="204">
       <c r="A204" t="s" s="2">
         <v>457</v>
       </c>
@@ -24880,7 +24862,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="205" hidden="true">
+    <row r="205">
       <c r="A205" t="s" s="2">
         <v>462</v>
       </c>
@@ -24991,7 +24973,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="206" hidden="true">
+    <row r="206">
       <c r="A206" t="s" s="2">
         <v>444</v>
       </c>
@@ -25102,7 +25084,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="207" hidden="true">
+    <row r="207">
       <c r="A207" t="s" s="2">
         <v>447</v>
       </c>
@@ -25211,7 +25193,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="208" hidden="true">
+    <row r="208">
       <c r="A208" t="s" s="2">
         <v>448</v>
       </c>
@@ -25322,7 +25304,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="209" hidden="true">
+    <row r="209">
       <c r="A209" t="s" s="2">
         <v>449</v>
       </c>
@@ -25435,7 +25417,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="210" hidden="true">
+    <row r="210">
       <c r="A210" t="s" s="2">
         <v>450</v>
       </c>
@@ -25548,7 +25530,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="211" hidden="true">
+    <row r="211">
       <c r="A211" t="s" s="2">
         <v>457</v>
       </c>
@@ -25659,7 +25641,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="212" hidden="true">
+    <row r="212">
       <c r="A212" t="s" s="2">
         <v>462</v>
       </c>
@@ -25770,7 +25752,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="213" hidden="true">
+    <row r="213">
       <c r="A213" t="s" s="2">
         <v>444</v>
       </c>
@@ -25881,7 +25863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="214" hidden="true">
+    <row r="214">
       <c r="A214" t="s" s="2">
         <v>447</v>
       </c>
@@ -25990,7 +25972,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="215" hidden="true">
+    <row r="215">
       <c r="A215" t="s" s="2">
         <v>448</v>
       </c>
@@ -26101,7 +26083,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="216" hidden="true">
+    <row r="216">
       <c r="A216" t="s" s="2">
         <v>449</v>
       </c>
@@ -26214,7 +26196,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="217" hidden="true">
+    <row r="217">
       <c r="A217" t="s" s="2">
         <v>450</v>
       </c>
@@ -26327,7 +26309,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="218" hidden="true">
+    <row r="218">
       <c r="A218" t="s" s="2">
         <v>457</v>
       </c>
@@ -26438,7 +26420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="219" hidden="true">
+    <row r="219">
       <c r="A219" t="s" s="2">
         <v>462</v>
       </c>
@@ -26549,7 +26531,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="220" hidden="true">
+    <row r="220">
       <c r="A220" t="s" s="2">
         <v>466</v>
       </c>
@@ -26660,7 +26642,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="221" hidden="true">
+    <row r="221">
       <c r="A221" t="s" s="2">
         <v>470</v>
       </c>
@@ -26771,7 +26753,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="222" hidden="true">
+    <row r="222">
       <c r="A222" t="s" s="2">
         <v>476</v>
       </c>
@@ -26882,7 +26864,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="223" hidden="true">
+    <row r="223">
       <c r="A223" t="s" s="2">
         <v>544</v>
       </c>
@@ -26993,7 +26975,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="224" hidden="true">
+    <row r="224">
       <c r="A224" t="s" s="2">
         <v>550</v>
       </c>
@@ -27106,7 +27088,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="225" hidden="true">
+    <row r="225">
       <c r="A225" t="s" s="2">
         <v>558</v>
       </c>
@@ -27217,7 +27199,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="226" hidden="true">
+    <row r="226">
       <c r="A226" t="s" s="2">
         <v>562</v>
       </c>
@@ -27326,7 +27308,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="227" hidden="true">
+    <row r="227">
       <c r="A227" t="s" s="2">
         <v>563</v>
       </c>
@@ -27437,7 +27419,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="228" hidden="true">
+    <row r="228">
       <c r="A228" t="s" s="2">
         <v>564</v>
       </c>
@@ -27550,7 +27532,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="229" hidden="true">
+    <row r="229">
       <c r="A229" t="s" s="2">
         <v>565</v>
       </c>
@@ -27662,24 +27644,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM229">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI228">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8084" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8084" uniqueCount="570">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1716,15 +1716,6 @@
   </si>
   <si>
     <t>Service excluded from package.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/coverage-item-category"/&gt;
-    &lt;code value="item_left"/&gt;
-    &lt;display value="Service left"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>CoverageEligibilityResponse.preAuthRef</t>
@@ -26243,7 +26234,7 @@
         <v>74</v>
       </c>
       <c r="R217" t="s" s="2">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="S217" t="s" s="2">
         <v>74</v>
@@ -26866,7 +26857,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -26892,14 +26883,14 @@
         <v>85</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L223" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>74</v>
@@ -26948,7 +26939,7 @@
         <v>74</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>75</v>
@@ -26969,15 +26960,15 @@
         <v>74</v>
       </c>
       <c r="AL223" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM223" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="AM223" t="s" s="2">
-        <v>549</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -27003,16 +26994,16 @@
         <v>171</v>
       </c>
       <c r="K224" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L224" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L224" t="s" s="2">
+      <c r="M224" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M224" t="s" s="2">
+      <c r="N224" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>74</v>
@@ -27040,11 +27031,11 @@
         <v>398</v>
       </c>
       <c r="X224" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="Y224" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="Y224" t="s" s="2">
-        <v>556</v>
-      </c>
       <c r="Z224" t="s" s="2">
         <v>74</v>
       </c>
@@ -27061,7 +27052,7 @@
         <v>74</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>75</v>
@@ -27082,7 +27073,7 @@
         <v>74</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>74</v>
@@ -27090,7 +27081,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -27116,14 +27107,14 @@
         <v>336</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="L225" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>74</v>
@@ -27172,7 +27163,7 @@
         <v>74</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>75</v>
@@ -27201,7 +27192,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -27310,7 +27301,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -27421,7 +27412,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -27534,7 +27525,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -27560,14 +27551,14 @@
         <v>171</v>
       </c>
       <c r="K229" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L229" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L229" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="M229" s="2"/>
       <c r="N229" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>74</v>
@@ -27595,11 +27586,11 @@
         <v>398</v>
       </c>
       <c r="X229" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="Y229" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="Y229" t="s" s="2">
-        <v>570</v>
-      </c>
       <c r="Z229" t="s" s="2">
         <v>74</v>
       </c>
@@ -27616,7 +27607,7 @@
         <v>74</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1669,7 +1669,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/coverage-item-category"/&gt;
+    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/coverage-item-benefit-type"/&gt;
     &lt;code value="min_date_item"/&gt;
     &lt;display value="Mininum date"/&gt;
   &lt;/coding&gt;
@@ -1681,7 +1681,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/coverage-item-category"/&gt;
+    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/coverage-item-benefit-type"/&gt;
     &lt;code value="item_left"/&gt;
     &lt;display value="Items left"/&gt;
   &lt;/coding&gt;

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1035,6 +1035,10 @@
     <t>CoverageEligibilityResponse.insurer</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-insurance-organization)
+</t>
+  </si>
+  <si>
     <t>Coverage issuer</t>
   </si>
   <si>
@@ -1042,11 +1046,6 @@
   </si>
   <si>
     <t>Need to identify the author.</t>
-  </si>
-  <si>
-    <t>&lt;valueReference xmlns="http://hl7.org/fhir"&gt;
-  &lt;reference value="openIMIS"/&gt;
-&lt;/valueReference&gt;</t>
   </si>
   <si>
     <t>CoverageEligibilityResponse.insurance</t>
@@ -8745,17 +8744,17 @@
         <v>84</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8765,7 +8764,7 @@
         <v>74</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>334</v>
+        <v>74</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-response.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
